--- a/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/8_455-55R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/8_455-55R22.xlsx
@@ -674,85 +674,85 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.3786520299737919</v>
+        <v>0.3012691827331498</v>
       </c>
       <c r="E2">
-        <v>0.1421951288996609</v>
+        <v>0.06332205815083285</v>
       </c>
       <c r="F2">
-        <v>0.07063998213772633</v>
+        <v>0.2294378396405677</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.04627779842416825</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.08872323200987936</v>
       </c>
       <c r="J2">
-        <v>0.03119991231257551</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.00441389211718877</v>
+        <v>0.004865456447410015</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.001208906001268053</v>
       </c>
       <c r="N2">
-        <v>0.01898932720334994</v>
+        <v>0.02770374421311687</v>
       </c>
       <c r="O2">
-        <v>0.07887679305131914</v>
+        <v>0.0733851138951306</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.04378241319296176</v>
+        <v>0</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.003614911450791936</v>
       </c>
       <c r="T2">
-        <v>0.08440704245533479</v>
+        <v>0.02917065407057743</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.002275811309717805</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.007086242644721186</v>
       </c>
       <c r="W2">
-        <v>0.01350013612711985</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.02031140058832637</v>
+        <v>0.05584780364008685</v>
       </c>
       <c r="Y2">
-        <v>0.004321588536640657</v>
+        <v>0.0002500357908064726</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>0.04238938010163894</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>0.003933628921291183</v>
       </c>
       <c r="AC2">
-        <v>0.01175786848274584</v>
+        <v>0.009306237723661572</v>
       </c>
       <c r="AD2">
-        <v>0.03430571113358452</v>
+        <v>0.0303582436846821</v>
       </c>
       <c r="AE2">
         <v>0</v>
@@ -761,13 +761,13 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>0.004506724690801683</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>0.02134479287986747</v>
       </c>
       <c r="AI2">
-        <v>0.01636897536350555</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
         <v>0</v>
@@ -784,76 +784,76 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.2558249994800285</v>
       </c>
       <c r="E3">
-        <v>0.06604996764108562</v>
+        <v>0.114552373351079</v>
       </c>
       <c r="F3">
-        <v>0.03959899280803546</v>
+        <v>0.08634877839311524</v>
       </c>
       <c r="G3">
-        <v>0.3163463105876501</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.03972869963367733</v>
       </c>
       <c r="I3">
-        <v>0.01532673935370118</v>
+        <v>0.05985330009191785</v>
       </c>
       <c r="J3">
-        <v>0.06570371779412831</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.006640021449820245</v>
       </c>
       <c r="L3">
-        <v>0.04353645671364749</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.01680859541549258</v>
       </c>
       <c r="N3">
-        <v>0.002948853664019736</v>
+        <v>0.1357851390302899</v>
       </c>
       <c r="O3">
-        <v>0.005055126392079109</v>
+        <v>0.07155384156221543</v>
       </c>
       <c r="P3">
-        <v>0.07586507292420286</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.1033923577136883</v>
+        <v>0.01980800873349787</v>
       </c>
       <c r="R3">
-        <v>0.00869153922143054</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.02957293137805114</v>
+        <v>0.07252574550412237</v>
       </c>
       <c r="T3">
-        <v>0.1051862170878649</v>
+        <v>0.06842245249174013</v>
       </c>
       <c r="U3">
-        <v>0.001433761031021667</v>
+        <v>0.009451159740475527</v>
       </c>
       <c r="V3">
-        <v>0.06461796735095107</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.009088782807343633</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.009821959675541253</v>
       </c>
       <c r="Y3">
-        <v>0.01115208998889177</v>
+        <v>0.001245076771581619</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.003942713973836958</v>
+        <v>0</v>
       </c>
       <c r="AB3">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.002964398033183597</v>
+        <v>0.01201290649135557</v>
       </c>
       <c r="AE3">
-        <v>0.02527703757120627</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.01333774877132388</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>0.01052815937670603</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -894,73 +894,73 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2394341149645782</v>
+        <v>0.3479566098644447</v>
       </c>
       <c r="E4">
-        <v>0.09650293452196865</v>
+        <v>0.09380073735079537</v>
       </c>
       <c r="F4">
-        <v>0.06057467339809788</v>
+        <v>0.1339337502160114</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.04298768301654452</v>
+        <v>0.01079854252789927</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.09715710041420136</v>
       </c>
       <c r="J4">
-        <v>0.06825649789047293</v>
+        <v>0.006154989784036289</v>
       </c>
       <c r="K4">
-        <v>0.005062553632330828</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.002963686892839475</v>
+        <v>0.01710591188936773</v>
       </c>
       <c r="N4">
-        <v>0.04013065549858562</v>
+        <v>0.03771651290048194</v>
       </c>
       <c r="O4">
-        <v>0.08998728146303257</v>
+        <v>0.04766899144135536</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.1449319240493028</v>
+        <v>0.0458798306895781</v>
       </c>
       <c r="R4">
-        <v>0.01403810754006961</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.01391953056356904</v>
+        <v>0.02740243312329977</v>
       </c>
       <c r="T4">
-        <v>0.1435835871195956</v>
+        <v>0.05286551203703312</v>
       </c>
       <c r="U4">
-        <v>0.006174885208059629</v>
+        <v>0</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0.00264811392881924</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>0.01299219703325387</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>0.0225589218019334</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>0.009701332677963878</v>
       </c>
       <c r="AA4">
         <v>0</v>
@@ -972,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.01600602850770448</v>
+        <v>0.02398353292511377</v>
       </c>
       <c r="AE4">
         <v>0</v>
@@ -981,13 +981,13 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>0.00499834797670484</v>
       </c>
       <c r="AH4">
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.01279774180442921</v>
+        <v>0.007324745346526059</v>
       </c>
       <c r="AJ4">
         <v>0</v>
@@ -1004,76 +1004,76 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2833614872253823</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1230702783450254</v>
+        <v>0.1206198647699611</v>
       </c>
       <c r="F5">
-        <v>0.0294239123375672</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.3201235049755429</v>
       </c>
       <c r="H5">
-        <v>0.06560964467843743</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.002054172577870518</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.003365338340513393</v>
+        <v>0.06930787488404261</v>
       </c>
       <c r="K5">
-        <v>0.01021345704162382</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.002654273540402152</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.0458274176114216</v>
+        <v>0.05576107298705538</v>
       </c>
       <c r="O5">
-        <v>0.0644019092798072</v>
+        <v>0.048880028575729</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.1226009718756352</v>
       </c>
       <c r="Q5">
-        <v>0.125876042011845</v>
+        <v>0.02072919102145881</v>
       </c>
       <c r="R5">
-        <v>0.00754288898017861</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.05184732908911848</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.1358530968195374</v>
+        <v>0.02772760916006481</v>
       </c>
       <c r="U5">
-        <v>0.02129232193505377</v>
+        <v>0.0001439095256458173</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.0252881234372909</v>
       </c>
       <c r="W5">
-        <v>0.006000031378893573</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.003828282989144883</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>0.04875534223715938</v>
       </c>
       <c r="Z5">
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>0.03416767223201488</v>
       </c>
       <c r="AB5">
         <v>0</v>
@@ -1085,19 +1085,19 @@
         <v>0</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>0.03918124625389892</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>0.01526844590668809</v>
       </c>
       <c r="AG5">
         <v>0</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>0.009801041543497905</v>
       </c>
       <c r="AI5">
-        <v>0.0204323893585793</v>
+        <v>0.03898982707391214</v>
       </c>
       <c r="AJ5">
         <v>0</v>
@@ -1114,28 +1114,28 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2544969714732909</v>
+        <v>0.01426140367857939</v>
       </c>
       <c r="E6">
-        <v>0.006179699233415971</v>
+        <v>0.3706999850232947</v>
       </c>
       <c r="F6">
-        <v>0.1720919870335821</v>
+        <v>0.1408181869154381</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.05385669114851131</v>
       </c>
       <c r="H6">
-        <v>0.05466912061646601</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.02465759895508065</v>
+        <v>0.01490853280700838</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.07670178972894481</v>
       </c>
       <c r="K6">
-        <v>0.04142698947590744</v>
+        <v>0.02150654063150259</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1144,28 +1144,28 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.02690239920415287</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.050303326311142</v>
+        <v>0.03656037657889585</v>
       </c>
       <c r="P6">
-        <v>0.06867270192779365</v>
+        <v>0.06970250916632589</v>
       </c>
       <c r="Q6">
-        <v>0.05719606680025034</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.009313720437156475</v>
+        <v>0.07096201291294417</v>
       </c>
       <c r="S6">
-        <v>0.1337423134067492</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.04030382177975714</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.05243959528163469</v>
+        <v>0.08959169379879821</v>
       </c>
       <c r="V6">
         <v>0</v>
@@ -1174,13 +1174,13 @@
         <v>0</v>
       </c>
       <c r="X6">
-        <v>0.006961562983219855</v>
+        <v>0.006940117850084848</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>0.003544200646173056</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>0.01756553875735742</v>
       </c>
       <c r="AA6">
         <v>0</v>
@@ -1192,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.0006421250804007732</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>0.01238042035614131</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1347,97 +1347,97 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.3786520299737919</v>
+        <v>0.3012691827331498</v>
       </c>
       <c r="E2">
-        <v>0.5208471588734528</v>
+        <v>0.3645912408839827</v>
       </c>
       <c r="F2">
-        <v>0.5914871410111792</v>
+        <v>0.5940290805245505</v>
       </c>
       <c r="G2">
-        <v>0.5914871410111792</v>
+        <v>0.5940290805245505</v>
       </c>
       <c r="H2">
-        <v>0.6377649394353474</v>
+        <v>0.5940290805245505</v>
       </c>
       <c r="I2">
-        <v>0.6377649394353474</v>
+        <v>0.6827523125344299</v>
       </c>
       <c r="J2">
-        <v>0.6689648517479229</v>
+        <v>0.6827523125344299</v>
       </c>
       <c r="K2">
-        <v>0.6689648517479229</v>
+        <v>0.6827523125344299</v>
       </c>
       <c r="L2">
-        <v>0.6733787438651117</v>
+        <v>0.6876177689818399</v>
       </c>
       <c r="M2">
-        <v>0.6733787438651117</v>
+        <v>0.688826674983108</v>
       </c>
       <c r="N2">
-        <v>0.6923680710684615</v>
+        <v>0.7165304191962248</v>
       </c>
       <c r="O2">
-        <v>0.7712448641197807</v>
+        <v>0.7899155330913554</v>
       </c>
       <c r="P2">
-        <v>0.7712448641197807</v>
+        <v>0.7899155330913554</v>
       </c>
       <c r="Q2">
-        <v>0.8150272773127424</v>
+        <v>0.7899155330913554</v>
       </c>
       <c r="R2">
-        <v>0.8150272773127424</v>
+        <v>0.7899155330913554</v>
       </c>
       <c r="S2">
-        <v>0.8150272773127424</v>
+        <v>0.7935304445421474</v>
       </c>
       <c r="T2">
-        <v>0.8994343197680772</v>
+        <v>0.8227010986127248</v>
       </c>
       <c r="U2">
-        <v>0.8994343197680772</v>
+        <v>0.8249769099224425</v>
       </c>
       <c r="V2">
-        <v>0.8994343197680772</v>
+        <v>0.8320631525671638</v>
       </c>
       <c r="W2">
-        <v>0.9129344558951971</v>
+        <v>0.8320631525671638</v>
       </c>
       <c r="X2">
-        <v>0.9332458564835234</v>
+        <v>0.8879109562072507</v>
       </c>
       <c r="Y2">
-        <v>0.9375674450201641</v>
+        <v>0.8881609919980572</v>
       </c>
       <c r="Z2">
-        <v>0.9375674450201641</v>
+        <v>0.9305503720996962</v>
       </c>
       <c r="AA2">
-        <v>0.9375674450201641</v>
+        <v>0.9305503720996962</v>
       </c>
       <c r="AB2">
-        <v>0.9375674450201641</v>
+        <v>0.9344840010209874</v>
       </c>
       <c r="AC2">
-        <v>0.9493253135029099</v>
+        <v>0.943790238744649</v>
       </c>
       <c r="AD2">
-        <v>0.9836310246364944</v>
+        <v>0.9741484824293311</v>
       </c>
       <c r="AE2">
-        <v>0.9836310246364944</v>
+        <v>0.9741484824293311</v>
       </c>
       <c r="AF2">
-        <v>0.9836310246364944</v>
+        <v>0.9741484824293311</v>
       </c>
       <c r="AG2">
-        <v>0.9836310246364944</v>
+        <v>0.9786552071201328</v>
       </c>
       <c r="AH2">
-        <v>0.9836310246364944</v>
+        <v>1</v>
       </c>
       <c r="AI2">
         <v>1</v>
@@ -1457,103 +1457,103 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.2558249994800285</v>
       </c>
       <c r="E3">
-        <v>0.06604996764108562</v>
+        <v>0.3703773728311075</v>
       </c>
       <c r="F3">
-        <v>0.1056489604491211</v>
+        <v>0.4567261512242227</v>
       </c>
       <c r="G3">
-        <v>0.4219952710367711</v>
+        <v>0.4567261512242227</v>
       </c>
       <c r="H3">
-        <v>0.4219952710367711</v>
+        <v>0.4964548508579</v>
       </c>
       <c r="I3">
-        <v>0.4373220103904723</v>
+        <v>0.5563081509498179</v>
       </c>
       <c r="J3">
-        <v>0.5030257281846007</v>
+        <v>0.5563081509498179</v>
       </c>
       <c r="K3">
-        <v>0.5030257281846007</v>
+        <v>0.5629481723996381</v>
       </c>
       <c r="L3">
-        <v>0.5465621848982481</v>
+        <v>0.5629481723996381</v>
       </c>
       <c r="M3">
-        <v>0.5465621848982481</v>
+        <v>0.5797567678151307</v>
       </c>
       <c r="N3">
-        <v>0.5495110385622679</v>
+        <v>0.7155419068454206</v>
       </c>
       <c r="O3">
-        <v>0.554566164954347</v>
+        <v>0.7870957484076361</v>
       </c>
       <c r="P3">
-        <v>0.6304312378785498</v>
+        <v>0.7870957484076361</v>
       </c>
       <c r="Q3">
-        <v>0.7338235955922381</v>
+        <v>0.8069037571411339</v>
       </c>
       <c r="R3">
-        <v>0.7425151348136686</v>
+        <v>0.8069037571411339</v>
       </c>
       <c r="S3">
-        <v>0.7720880661917198</v>
+        <v>0.8794295026452563</v>
       </c>
       <c r="T3">
-        <v>0.8772742832795847</v>
+        <v>0.9478519551369965</v>
       </c>
       <c r="U3">
-        <v>0.8787080443106063</v>
+        <v>0.957303114877472</v>
       </c>
       <c r="V3">
-        <v>0.9433260116615574</v>
+        <v>0.957303114877472</v>
       </c>
       <c r="W3">
-        <v>0.9433260116615574</v>
+        <v>0.9663918976848156</v>
       </c>
       <c r="X3">
-        <v>0.9433260116615574</v>
+        <v>0.9762138573603568</v>
       </c>
       <c r="Y3">
-        <v>0.9544781016504491</v>
+        <v>0.9774589341319384</v>
       </c>
       <c r="Z3">
-        <v>0.9544781016504491</v>
+        <v>0.9774589341319384</v>
       </c>
       <c r="AA3">
-        <v>0.958420815624286</v>
+        <v>0.9774589341319384</v>
       </c>
       <c r="AB3">
-        <v>0.958420815624286</v>
+        <v>0.9774589341319384</v>
       </c>
       <c r="AC3">
-        <v>0.958420815624286</v>
+        <v>0.9774589341319384</v>
       </c>
       <c r="AD3">
-        <v>0.9613852136574697</v>
+        <v>0.989471840623294</v>
       </c>
       <c r="AE3">
-        <v>0.9866622512286759</v>
+        <v>0.989471840623294</v>
       </c>
       <c r="AF3">
-        <v>0.9999999999999998</v>
+        <v>0.989471840623294</v>
       </c>
       <c r="AG3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AH3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AI3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AJ3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:36">
@@ -1567,97 +1567,97 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2394341149645782</v>
+        <v>0.3479566098644447</v>
       </c>
       <c r="E4">
-        <v>0.3359370494865468</v>
+        <v>0.4417573472152401</v>
       </c>
       <c r="F4">
-        <v>0.3965117228846447</v>
+        <v>0.5756910974312515</v>
       </c>
       <c r="G4">
-        <v>0.3965117228846447</v>
+        <v>0.5756910974312515</v>
       </c>
       <c r="H4">
-        <v>0.4394994059011892</v>
+        <v>0.5864896399591507</v>
       </c>
       <c r="I4">
-        <v>0.4394994059011892</v>
+        <v>0.683646740373352</v>
       </c>
       <c r="J4">
-        <v>0.5077559037916621</v>
+        <v>0.6898017301573883</v>
       </c>
       <c r="K4">
-        <v>0.512818457423993</v>
+        <v>0.6898017301573883</v>
       </c>
       <c r="L4">
-        <v>0.512818457423993</v>
+        <v>0.6898017301573883</v>
       </c>
       <c r="M4">
-        <v>0.5157821443168324</v>
+        <v>0.706907642046756</v>
       </c>
       <c r="N4">
-        <v>0.5559127998154181</v>
+        <v>0.744624154947238</v>
       </c>
       <c r="O4">
-        <v>0.6459000812784507</v>
+        <v>0.7922931463885934</v>
       </c>
       <c r="P4">
-        <v>0.6459000812784507</v>
+        <v>0.7922931463885934</v>
       </c>
       <c r="Q4">
-        <v>0.7908320053277534</v>
+        <v>0.8381729770781715</v>
       </c>
       <c r="R4">
-        <v>0.8048701128678231</v>
+        <v>0.8381729770781715</v>
       </c>
       <c r="S4">
-        <v>0.8187896434313922</v>
+        <v>0.8655754102014713</v>
       </c>
       <c r="T4">
-        <v>0.9623732305509878</v>
+        <v>0.9184409222385045</v>
       </c>
       <c r="U4">
-        <v>0.9685481157590474</v>
+        <v>0.9184409222385045</v>
       </c>
       <c r="V4">
-        <v>0.9685481157590474</v>
+        <v>0.9184409222385045</v>
       </c>
       <c r="W4">
-        <v>0.9711962296878667</v>
+        <v>0.9184409222385045</v>
       </c>
       <c r="X4">
-        <v>0.9711962296878667</v>
+        <v>0.9314331192717583</v>
       </c>
       <c r="Y4">
-        <v>0.9711962296878667</v>
+        <v>0.9539920410736917</v>
       </c>
       <c r="Z4">
-        <v>0.9711962296878667</v>
+        <v>0.9636933737516556</v>
       </c>
       <c r="AA4">
-        <v>0.9711962296878667</v>
+        <v>0.9636933737516556</v>
       </c>
       <c r="AB4">
-        <v>0.9711962296878667</v>
+        <v>0.9636933737516556</v>
       </c>
       <c r="AC4">
-        <v>0.9711962296878667</v>
+        <v>0.9636933737516556</v>
       </c>
       <c r="AD4">
-        <v>0.9872022581955712</v>
+        <v>0.9876769066767694</v>
       </c>
       <c r="AE4">
-        <v>0.9872022581955712</v>
+        <v>0.9876769066767694</v>
       </c>
       <c r="AF4">
-        <v>0.9872022581955712</v>
+        <v>0.9876769066767694</v>
       </c>
       <c r="AG4">
-        <v>0.9872022581955712</v>
+        <v>0.9926752546534743</v>
       </c>
       <c r="AH4">
-        <v>0.9872022581955712</v>
+        <v>0.9926752546534743</v>
       </c>
       <c r="AI4">
         <v>1</v>
@@ -1677,103 +1677,103 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2833614872253823</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.4064317655704077</v>
+        <v>0.1206198647699611</v>
       </c>
       <c r="F5">
-        <v>0.4358556779079749</v>
+        <v>0.1206198647699611</v>
       </c>
       <c r="G5">
-        <v>0.4358556779079749</v>
+        <v>0.440743369745504</v>
       </c>
       <c r="H5">
-        <v>0.5014653225864123</v>
+        <v>0.440743369745504</v>
       </c>
       <c r="I5">
-        <v>0.5035194951642828</v>
+        <v>0.440743369745504</v>
       </c>
       <c r="J5">
-        <v>0.5068848335047963</v>
+        <v>0.5100512446295467</v>
       </c>
       <c r="K5">
-        <v>0.5170982905464201</v>
+        <v>0.5100512446295467</v>
       </c>
       <c r="L5">
-        <v>0.5170982905464201</v>
+        <v>0.5127055181699488</v>
       </c>
       <c r="M5">
-        <v>0.5170982905464201</v>
+        <v>0.5127055181699488</v>
       </c>
       <c r="N5">
-        <v>0.5629257081578417</v>
+        <v>0.5684665911570042</v>
       </c>
       <c r="O5">
-        <v>0.6273276174376489</v>
+        <v>0.6173466197327332</v>
       </c>
       <c r="P5">
-        <v>0.6273276174376489</v>
+        <v>0.7399475916083683</v>
       </c>
       <c r="Q5">
-        <v>0.7532036594494939</v>
+        <v>0.7606767826298271</v>
       </c>
       <c r="R5">
-        <v>0.7607465484296725</v>
+        <v>0.7606767826298271</v>
       </c>
       <c r="S5">
-        <v>0.812593877518791</v>
+        <v>0.7606767826298271</v>
       </c>
       <c r="T5">
-        <v>0.9484469743383284</v>
+        <v>0.7884043917898919</v>
       </c>
       <c r="U5">
-        <v>0.9697392962733822</v>
+        <v>0.7885483013155377</v>
       </c>
       <c r="V5">
-        <v>0.9697392962733822</v>
+        <v>0.8138364247528286</v>
       </c>
       <c r="W5">
-        <v>0.9757393276522758</v>
+        <v>0.8138364247528286</v>
       </c>
       <c r="X5">
-        <v>0.9795676106414206</v>
+        <v>0.8138364247528286</v>
       </c>
       <c r="Y5">
-        <v>0.9795676106414206</v>
+        <v>0.862591766989988</v>
       </c>
       <c r="Z5">
-        <v>0.9795676106414206</v>
+        <v>0.862591766989988</v>
       </c>
       <c r="AA5">
-        <v>0.9795676106414206</v>
+        <v>0.8967594392220029</v>
       </c>
       <c r="AB5">
-        <v>0.9795676106414206</v>
+        <v>0.8967594392220029</v>
       </c>
       <c r="AC5">
-        <v>0.9795676106414206</v>
+        <v>0.8967594392220029</v>
       </c>
       <c r="AD5">
-        <v>0.9795676106414206</v>
+        <v>0.8967594392220029</v>
       </c>
       <c r="AE5">
-        <v>0.9795676106414206</v>
+        <v>0.9359406854759018</v>
       </c>
       <c r="AF5">
-        <v>0.9795676106414206</v>
+        <v>0.9512091313825899</v>
       </c>
       <c r="AG5">
-        <v>0.9795676106414206</v>
+        <v>0.9512091313825899</v>
       </c>
       <c r="AH5">
-        <v>0.9795676106414206</v>
+        <v>0.9610101729260878</v>
       </c>
       <c r="AI5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -1787,103 +1787,103 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2544969714732909</v>
+        <v>0.01426140367857939</v>
       </c>
       <c r="E6">
-        <v>0.2606766707067069</v>
+        <v>0.3849613887018741</v>
       </c>
       <c r="F6">
-        <v>0.4327686577402889</v>
+        <v>0.5257795756173121</v>
       </c>
       <c r="G6">
-        <v>0.4327686577402889</v>
+        <v>0.5796362667658235</v>
       </c>
       <c r="H6">
-        <v>0.4874377783567549</v>
+        <v>0.5796362667658235</v>
       </c>
       <c r="I6">
-        <v>0.5120953773118356</v>
+        <v>0.5945447995728319</v>
       </c>
       <c r="J6">
-        <v>0.5120953773118356</v>
+        <v>0.6712465893017767</v>
       </c>
       <c r="K6">
-        <v>0.553522366787743</v>
+        <v>0.6927531299332793</v>
       </c>
       <c r="L6">
-        <v>0.553522366787743</v>
+        <v>0.6927531299332793</v>
       </c>
       <c r="M6">
-        <v>0.553522366787743</v>
+        <v>0.6927531299332793</v>
       </c>
       <c r="N6">
-        <v>0.5804247659918959</v>
+        <v>0.6927531299332793</v>
       </c>
       <c r="O6">
-        <v>0.6307280923030378</v>
+        <v>0.7293135065121752</v>
       </c>
       <c r="P6">
-        <v>0.6994007942308315</v>
+        <v>0.7990160156785011</v>
       </c>
       <c r="Q6">
-        <v>0.7565968610310818</v>
+        <v>0.7990160156785011</v>
       </c>
       <c r="R6">
-        <v>0.7659105814682383</v>
+        <v>0.8699780285914452</v>
       </c>
       <c r="S6">
-        <v>0.8996528948749876</v>
+        <v>0.8699780285914452</v>
       </c>
       <c r="T6">
-        <v>0.9399567166547447</v>
+        <v>0.8699780285914452</v>
       </c>
       <c r="U6">
-        <v>0.9923963119363793</v>
+        <v>0.9595697223902434</v>
       </c>
       <c r="V6">
-        <v>0.9923963119363793</v>
+        <v>0.9595697223902434</v>
       </c>
       <c r="W6">
-        <v>0.9923963119363793</v>
+        <v>0.9595697223902434</v>
       </c>
       <c r="X6">
-        <v>0.9993578749195992</v>
+        <v>0.9665098402403283</v>
       </c>
       <c r="Y6">
-        <v>0.9993578749195992</v>
+        <v>0.9700540408865013</v>
       </c>
       <c r="Z6">
-        <v>0.9993578749195992</v>
+        <v>0.9876195796438587</v>
       </c>
       <c r="AA6">
-        <v>0.9993578749195992</v>
+        <v>0.9876195796438587</v>
       </c>
       <c r="AB6">
-        <v>0.9993578749195992</v>
+        <v>0.9876195796438587</v>
       </c>
       <c r="AC6">
-        <v>0.9993578749195992</v>
+        <v>0.9876195796438587</v>
       </c>
       <c r="AD6">
-        <v>0.9999999999999999</v>
+        <v>0.9876195796438587</v>
       </c>
       <c r="AE6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AF6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AG6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AH6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1951,16 +1951,16 @@
         <v>1</v>
       </c>
       <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.5940290805245505</v>
+      </c>
+      <c r="G2">
         <v>4</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.5208471588734528</v>
-      </c>
-      <c r="G2">
-        <v>3</v>
       </c>
       <c r="H2">
         <v>8</v>
@@ -1989,16 +1989,16 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5030257281846007</v>
+        <v>0.5563081509498179</v>
       </c>
       <c r="G3">
         <v>7</v>
@@ -2033,16 +2033,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5077559037916621</v>
+        <v>0.5756910974312515</v>
       </c>
       <c r="G4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H4">
         <v>8</v>
@@ -2071,19 +2071,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.5100512446295467</v>
+      </c>
+      <c r="G5">
         <v>7</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.5014653225864123</v>
-      </c>
-      <c r="G5">
-        <v>6</v>
       </c>
       <c r="H5">
         <v>8</v>
@@ -2112,19 +2112,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5120953773118356</v>
+        <v>0.5257795756173121</v>
       </c>
       <c r="G6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H6">
         <v>8</v>
@@ -2210,16 +2210,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7712448641197807</v>
+        <v>0.7165304191962248</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H2">
         <v>8</v>
@@ -2248,19 +2248,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7338235955922381</v>
+        <v>0.7155419068454206</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H3">
         <v>8</v>
@@ -2292,16 +2292,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7908320053277534</v>
+        <v>0.706907642046756</v>
       </c>
       <c r="G4">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H4">
         <v>8</v>
@@ -2330,19 +2330,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7532036594494939</v>
+        <v>0.7399475916083683</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H5">
         <v>8</v>
@@ -2371,19 +2371,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7565968610310818</v>
+        <v>0.7293135065121752</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H6">
         <v>8</v>
@@ -2469,16 +2469,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8150272773127424</v>
+        <v>0.8227010986127248</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H2">
         <v>8</v>
@@ -2507,19 +2507,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8772742832795847</v>
+        <v>0.8069037571411339</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H3">
         <v>8</v>
@@ -2551,16 +2551,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8048701128678231</v>
+        <v>0.8381729770781715</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4">
         <v>8</v>
@@ -2589,19 +2589,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.812593877518791</v>
+        <v>0.8138364247528286</v>
       </c>
       <c r="G5">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H5">
         <v>8</v>
@@ -2630,19 +2630,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8996528948749876</v>
+        <v>0.8699780285914452</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H6">
         <v>8</v>
@@ -2728,16 +2728,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9129344558951971</v>
+        <v>0.9305503720996962</v>
       </c>
       <c r="G2">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H2">
         <v>8</v>
@@ -2766,19 +2766,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9433260116615574</v>
+        <v>0.9478519551369965</v>
       </c>
       <c r="G3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H3">
         <v>8</v>
@@ -2816,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9623732305509878</v>
+        <v>0.9184409222385045</v>
       </c>
       <c r="G4">
         <v>18</v>
@@ -2848,19 +2848,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9484469743383284</v>
+        <v>0.9359406854759018</v>
       </c>
       <c r="G5">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H5">
         <v>8</v>
@@ -2889,16 +2889,16 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9399567166547447</v>
+        <v>0.9595697223902434</v>
       </c>
       <c r="G6">
         <v>18</v>
